--- a/mbs-perturbation/greedy/multinomialNB/greedy-multinomialNB-results.xlsx
+++ b/mbs-perturbation/greedy/multinomialNB/greedy-multinomialNB-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01550387596899225</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.695959595959596</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3246753246753247</v>
+        <v>0.4486626402070751</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.695959595959596</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0449438202247191</v>
+        <v>0.12</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8152173913043479</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4296774193548387</v>
+        <v>0.5309585492227979</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8152173913043479</v>
+        <v>0.5444444444444444</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4739130434782609</v>
+        <v>0.9365482233502538</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4833702882483371</v>
+        <v>0.7388519339738852</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4739130434782609</v>
+        <v>0.9365482233502538</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3934782608695652</v>
+        <v>0.9090909090909092</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4371980676328502</v>
+        <v>0.6687500000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3934782608695652</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.5995670995670995</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4967602591792656</v>
+        <v>0.6326732673267327</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.5995670995670995</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01208953923874227</v>
+        <v>0.2792990654205608</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5482100508187464</v>
+        <v>0.7371220544824605</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4343362718181233</v>
+        <v>0.6039792781460982</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5482100508187464</v>
+        <v>0.7371220544824605</v>
       </c>
     </row>
   </sheetData>
